--- a/data_year/zb/能源/电力平衡表.xlsx
+++ b/data_year/zb/能源/电力平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,1261 +533,769 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.2</v>
+        <v>734.52894836</v>
       </c>
       <c r="C2" t="n">
-        <v>623.2</v>
+        <v>2451.83</v>
       </c>
       <c r="D2" t="n">
-        <v>532.96</v>
+        <v>976.49</v>
       </c>
       <c r="E2" t="n">
-        <v>1451.95</v>
+        <v>5124.63</v>
       </c>
       <c r="F2" t="n">
-        <v>10004.62</v>
+        <v>30871.7696292073</v>
       </c>
       <c r="G2" t="n">
-        <v>9067.91</v>
+        <v>28303.53</v>
       </c>
       <c r="H2" t="n">
-        <v>159.77</v>
+        <v>483.24</v>
       </c>
       <c r="I2" t="n">
-        <v>418.68</v>
+        <v>1292</v>
       </c>
       <c r="J2" t="n">
-        <v>167.37</v>
+        <v>738.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2224.14</v>
+        <v>7221.72</v>
       </c>
       <c r="L2" t="n">
-        <v>11141.86</v>
+        <v>33319.28</v>
       </c>
       <c r="M2" t="n">
-        <v>98.78</v>
+        <v>190.59</v>
       </c>
       <c r="N2" t="n">
-        <v>13472.68</v>
+        <v>41936.46</v>
       </c>
       <c r="O2" t="n">
-        <v>13556</v>
+        <v>42071.6</v>
       </c>
       <c r="P2" t="n">
-        <v>12535.67</v>
+        <v>39366.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>13472.38</v>
+        <v>41934.49</v>
       </c>
       <c r="R2" t="n">
-        <v>15.46</v>
+        <v>55.45</v>
       </c>
       <c r="S2" t="n">
-        <v>936.7</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>2568.24</v>
+      </c>
+      <c r="T2" t="n">
+        <v>446.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.32</v>
+        <v>848.415894938898</v>
       </c>
       <c r="C3" t="n">
-        <v>663.0599999999999</v>
+        <v>2753.05</v>
       </c>
       <c r="D3" t="n">
-        <v>582.39</v>
+        <v>1012.9</v>
       </c>
       <c r="E3" t="n">
-        <v>1609.23</v>
+        <v>5620.06</v>
       </c>
       <c r="F3" t="n">
-        <v>10944.66</v>
+        <v>34691.5535087205</v>
       </c>
       <c r="G3" t="n">
-        <v>9911.190000000001</v>
+        <v>31990.85</v>
       </c>
       <c r="H3" t="n">
-        <v>154.91</v>
+        <v>571.8200000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>459.89</v>
+        <v>1503.08</v>
       </c>
       <c r="J3" t="n">
-        <v>174.72</v>
+        <v>863.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2774.32</v>
+        <v>6989.45</v>
       </c>
       <c r="L3" t="n">
-        <v>11834.25</v>
+        <v>38337.02</v>
       </c>
       <c r="M3" t="n">
-        <v>101.91</v>
+        <v>193.07</v>
       </c>
       <c r="N3" t="n">
-        <v>14724.09</v>
+        <v>47002.74</v>
       </c>
       <c r="O3" t="n">
-        <v>14808.02</v>
+        <v>47130.19</v>
       </c>
       <c r="P3" t="n">
-        <v>13689.99</v>
+        <v>44300.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>14723.46</v>
+        <v>47000.88</v>
       </c>
       <c r="R3" t="n">
-        <v>17.98</v>
+        <v>65.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1033.47</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>2700.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>703.3099999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.998668639053</v>
+        <v>915.3691599019839</v>
       </c>
       <c r="C4" t="n">
-        <v>728.5</v>
+        <v>3083.64</v>
       </c>
       <c r="D4" t="n">
-        <v>606.23</v>
+        <v>1012.57</v>
       </c>
       <c r="E4" t="n">
-        <v>1771.42</v>
+        <v>6218.96</v>
       </c>
       <c r="F4" t="n">
-        <v>12402.16</v>
+        <v>36232.2072451329</v>
       </c>
       <c r="G4" t="n">
-        <v>11233.5</v>
+        <v>33336.05</v>
       </c>
       <c r="H4" t="n">
-        <v>154.14</v>
+        <v>608.4</v>
       </c>
       <c r="I4" t="n">
-        <v>500</v>
+        <v>1691.49</v>
       </c>
       <c r="J4" t="n">
-        <v>251.27</v>
+        <v>973.9400000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>2879.74</v>
+        <v>8721.07</v>
       </c>
       <c r="L4" t="n">
-        <v>13381.36</v>
+        <v>38928.14</v>
       </c>
       <c r="M4" t="n">
-        <v>97.04000000000001</v>
+        <v>176.53</v>
       </c>
       <c r="N4" t="n">
-        <v>16465.96</v>
+        <v>49767.74</v>
       </c>
       <c r="O4" t="n">
-        <v>16540</v>
+        <v>49875.53</v>
       </c>
       <c r="P4" t="n">
-        <v>15296.79</v>
+        <v>46866.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>16465.45</v>
+        <v>49762.64</v>
       </c>
       <c r="R4" t="n">
-        <v>23</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>1168.66</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>2896.16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>959.78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.94</v>
+        <v>1000.9194839318</v>
       </c>
       <c r="C5" t="n">
-        <v>911.04</v>
+        <v>3397.62</v>
       </c>
       <c r="D5" t="n">
-        <v>693.15</v>
+        <v>1026.87</v>
       </c>
       <c r="E5" t="n">
-        <v>2058.04</v>
+        <v>6989.16</v>
       </c>
       <c r="F5" t="n">
-        <v>14169.68</v>
+        <v>39236.8806232892</v>
       </c>
       <c r="G5" t="n">
-        <v>12909</v>
+        <v>36096.17</v>
       </c>
       <c r="H5" t="n">
-        <v>179.78</v>
+        <v>675.0700000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>612.97</v>
+        <v>1876.89</v>
       </c>
       <c r="J5" t="n">
-        <v>433.42</v>
+        <v>1116.13</v>
       </c>
       <c r="K5" t="n">
-        <v>2836.81</v>
+        <v>9202.91</v>
       </c>
       <c r="L5" t="n">
-        <v>15803.61</v>
+        <v>42470.09</v>
       </c>
       <c r="M5" t="n">
-        <v>103.39</v>
+        <v>186.69</v>
       </c>
       <c r="N5" t="n">
-        <v>19032.16</v>
+        <v>54204.06</v>
       </c>
       <c r="O5" t="n">
-        <v>19105.75</v>
+        <v>54316.37</v>
       </c>
       <c r="P5" t="n">
-        <v>17770.92</v>
+        <v>51062.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>19031.6</v>
+        <v>54203.41</v>
       </c>
       <c r="R5" t="n">
-        <v>29.8</v>
+        <v>74.38</v>
       </c>
       <c r="S5" t="n">
-        <v>1260.68</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
+        <v>3140.71</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1411.97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449.649828</v>
+        <v>1059.24004223215</v>
       </c>
       <c r="C6" t="n">
-        <v>1036.581312</v>
+        <v>3614.98</v>
       </c>
       <c r="D6" t="n">
-        <v>768.87</v>
+        <v>1013.39</v>
       </c>
       <c r="E6" t="n">
-        <v>2384.488383</v>
+        <v>7176.1</v>
       </c>
       <c r="F6" t="n">
-        <v>16424.29</v>
+        <v>42248.7100152048</v>
       </c>
       <c r="G6" t="n">
-        <v>15003.69</v>
+        <v>39148.83</v>
       </c>
       <c r="H6" t="n">
-        <v>202.14</v>
+        <v>721.67</v>
       </c>
       <c r="I6" t="n">
-        <v>705.353788</v>
+        <v>1995.6</v>
       </c>
       <c r="J6" t="n">
-        <v>504.69</v>
+        <v>1325.38</v>
       </c>
       <c r="K6" t="n">
-        <v>3535.44</v>
+        <v>10728.824384</v>
       </c>
       <c r="L6" t="n">
-        <v>17955.88</v>
+        <v>44001.107947</v>
       </c>
       <c r="M6" t="n">
-        <v>94.76000000000001</v>
+        <v>181.58</v>
       </c>
       <c r="N6" t="n">
-        <v>21972.34</v>
+        <v>57830.488881</v>
       </c>
       <c r="O6" t="n">
-        <v>22033.1</v>
+        <v>57944.568881</v>
       </c>
       <c r="P6" t="n">
-        <v>20550.777115</v>
+        <v>54729.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>21971.377115</v>
+        <v>57829.69</v>
       </c>
       <c r="R6" t="n">
-        <v>34</v>
+        <v>67.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1420.6</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
+        <v>3099.88</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1599.785674</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430.3396211124</v>
+        <v>1125.6104998365</v>
       </c>
       <c r="C7" t="n">
-        <v>1340.91</v>
+        <v>3918.63</v>
       </c>
       <c r="D7" t="n">
-        <v>776.329758</v>
+        <v>1039.83</v>
       </c>
       <c r="E7" t="n">
-        <v>2884.81</v>
+        <v>7565.21</v>
       </c>
       <c r="F7" t="n">
-        <v>18521.69</v>
+        <v>41549.990498809</v>
       </c>
       <c r="G7" t="n">
-        <v>16815.22</v>
+        <v>38562.13</v>
       </c>
       <c r="H7" t="n">
-        <v>233.93</v>
+        <v>698.67</v>
       </c>
       <c r="I7" t="n">
-        <v>752.3099999999999</v>
+        <v>2122.04</v>
       </c>
       <c r="J7" t="n">
-        <v>530.88</v>
+        <v>1707.89</v>
       </c>
       <c r="K7" t="n">
-        <v>3970.17</v>
+        <v>11302.7</v>
       </c>
       <c r="L7" t="n">
-        <v>20473.36</v>
+        <v>42841.88</v>
       </c>
       <c r="M7" t="n">
-        <v>111.94</v>
+        <v>186.54</v>
       </c>
       <c r="N7" t="n">
-        <v>24940.77</v>
+        <v>58021.29</v>
       </c>
       <c r="O7" t="n">
-        <v>25002.6</v>
+        <v>58145.73</v>
       </c>
       <c r="P7" t="n">
-        <v>23233.849758</v>
+        <v>55032.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>24940.3193791124</v>
+        <v>58019.98</v>
       </c>
       <c r="R7" t="n">
-        <v>50.11</v>
+        <v>62.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1706.47</v>
-      </c>
-      <c r="T7" t="inlineStr"/>
+        <v>2987.86</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1857.66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.373739496842</v>
+        <v>1251.4896257982</v>
       </c>
       <c r="C8" t="n">
-        <v>1555.94</v>
+        <v>4394.8</v>
       </c>
       <c r="D8" t="n">
-        <v>827.040394</v>
+        <v>1091.91</v>
       </c>
       <c r="E8" t="n">
-        <v>3351.58147</v>
+        <v>8420.6</v>
       </c>
       <c r="F8" t="n">
-        <v>21267.74</v>
+        <v>42996.889763115</v>
       </c>
       <c r="G8" t="n">
-        <v>19408.91</v>
+        <v>39933.96</v>
       </c>
       <c r="H8" t="n">
-        <v>271.04985</v>
+        <v>725.62</v>
       </c>
       <c r="I8" t="n">
-        <v>847.25</v>
+        <v>2323.78</v>
       </c>
       <c r="J8" t="n">
-        <v>548.4299999999999</v>
+        <v>2132.8735</v>
       </c>
       <c r="K8" t="n">
-        <v>4357.86</v>
+        <v>11840.475661</v>
       </c>
       <c r="L8" t="n">
-        <v>23696.03</v>
+        <v>44370.6848</v>
       </c>
       <c r="M8" t="n">
-        <v>122.71</v>
+        <v>189.07</v>
       </c>
       <c r="N8" t="n">
-        <v>28588.44</v>
+        <v>61204.380522</v>
       </c>
       <c r="O8" t="n">
-        <v>28657.26</v>
+        <v>61331.600522</v>
       </c>
       <c r="P8" t="n">
-        <v>26729.141714</v>
+        <v>58142.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>28587.971714</v>
+        <v>61205.09</v>
       </c>
       <c r="R8" t="n">
-        <v>53.89</v>
+        <v>61.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1858.83</v>
-      </c>
-      <c r="T8" t="inlineStr"/>
+        <v>3062.93</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2370.7037</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>531.91</v>
+        <v>1417.9825692361</v>
       </c>
       <c r="C9" t="n">
-        <v>1708.6</v>
+        <v>4880.58874321</v>
       </c>
       <c r="D9" t="n">
-        <v>878.955248</v>
+        <v>1175.12042978</v>
       </c>
       <c r="E9" t="n">
-        <v>4062.71</v>
+        <v>9071.56783301</v>
       </c>
       <c r="F9" t="n">
-        <v>24290.81</v>
+        <v>46052.8416304815</v>
       </c>
       <c r="G9" t="n">
-        <v>22229.1</v>
+        <v>42857.01584138</v>
       </c>
       <c r="H9" t="n">
-        <v>309</v>
+        <v>789.22239393</v>
       </c>
       <c r="I9" t="n">
-        <v>929.8200000000001</v>
+        <v>2526.6450876</v>
       </c>
       <c r="J9" t="n">
-        <v>621.3</v>
+        <v>2480.702211</v>
       </c>
       <c r="K9" t="n">
-        <v>4852.64</v>
+        <v>11978.651527</v>
       </c>
       <c r="L9" t="n">
-        <v>27229.33</v>
+        <v>47545.950323</v>
       </c>
       <c r="M9" t="n">
-        <v>145.66</v>
+        <v>194.6950654</v>
       </c>
       <c r="N9" t="n">
-        <v>32712.38</v>
+        <v>65914.00158233001</v>
       </c>
       <c r="O9" t="n">
-        <v>32815.53</v>
+        <v>66044.46743999999</v>
       </c>
       <c r="P9" t="n">
-        <v>30650.095248</v>
+        <v>62718.14326312</v>
       </c>
       <c r="Q9" t="n">
-        <v>32711.805248</v>
+        <v>65913.96916414</v>
       </c>
       <c r="R9" t="n">
-        <v>42.51</v>
+        <v>64.22920773</v>
       </c>
       <c r="S9" t="n">
-        <v>2061.71</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
+        <v>3195.82590102</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2972.296235</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>571.8</v>
+        <v>1608.4972599</v>
       </c>
       <c r="C10" t="n">
-        <v>1913</v>
+        <v>5716.48780316</v>
       </c>
       <c r="D10" t="n">
-        <v>887.1</v>
+        <v>1242.52701037</v>
       </c>
       <c r="E10" t="n">
-        <v>4396.1</v>
+        <v>10057.5520458445</v>
       </c>
       <c r="F10" t="n">
-        <v>25388.6</v>
+        <v>49094.9115961343</v>
       </c>
       <c r="G10" t="n">
-        <v>23250.8</v>
+        <v>45743.19733307</v>
       </c>
       <c r="H10" t="n">
-        <v>367.3</v>
+        <v>887.82349597</v>
       </c>
       <c r="I10" t="n">
-        <v>1017.4</v>
+        <v>2900.39659038</v>
       </c>
       <c r="J10" t="n">
-        <v>683.9</v>
+        <v>2943.585425</v>
       </c>
       <c r="K10" t="n">
-        <v>5851.9</v>
+        <v>12317.870852</v>
       </c>
       <c r="L10" t="n">
-        <v>27900.8</v>
+        <v>50963.182876</v>
       </c>
       <c r="M10" t="n">
-        <v>166.44</v>
+        <v>209.06324038</v>
       </c>
       <c r="N10" t="n">
-        <v>34540.8</v>
+        <v>71509.15152573489</v>
       </c>
       <c r="O10" t="n">
-        <v>34668.8</v>
+        <v>71661.3323921249</v>
       </c>
       <c r="P10" t="n">
-        <v>32403.5</v>
+        <v>68156.4815377045</v>
       </c>
       <c r="Q10" t="n">
-        <v>34541.4</v>
+        <v>71508.1958301245</v>
       </c>
       <c r="R10" t="n">
-        <v>38.42</v>
+        <v>56.88237399</v>
       </c>
       <c r="S10" t="n">
-        <v>2137.9</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
+        <v>3351.71429242</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3659.7123816063</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>617</v>
+        <v>1752.3</v>
       </c>
       <c r="C11" t="n">
-        <v>2189.9</v>
+        <v>6263.8</v>
       </c>
       <c r="D11" t="n">
-        <v>939.9</v>
+        <v>1336.2</v>
       </c>
       <c r="E11" t="n">
-        <v>4872.2</v>
+        <v>10637.2</v>
       </c>
       <c r="F11" t="n">
-        <v>26854.5</v>
+        <v>50698.3</v>
       </c>
       <c r="G11" t="n">
-        <v>24596.3</v>
+        <v>47368.2</v>
       </c>
       <c r="H11" t="n">
-        <v>421.9</v>
+        <v>991.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1136.8</v>
+        <v>3187.1</v>
       </c>
       <c r="J11" t="n">
-        <v>701.3</v>
+        <v>3483.5</v>
       </c>
       <c r="K11" t="n">
-        <v>6156.4</v>
+        <v>13044.4</v>
       </c>
       <c r="L11" t="n">
-        <v>29827.8</v>
+        <v>52201.5</v>
       </c>
       <c r="M11" t="n">
-        <v>173.9</v>
+        <v>216.5</v>
       </c>
       <c r="N11" t="n">
-        <v>37032.7</v>
+        <v>74866.3</v>
       </c>
       <c r="O11" t="n">
-        <v>37146.5</v>
+        <v>75034.3</v>
       </c>
       <c r="P11" t="n">
-        <v>34773.9</v>
+        <v>71536</v>
       </c>
       <c r="Q11" t="n">
-        <v>37032.2</v>
+        <v>74866.10000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>60.1</v>
+        <v>48.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2258.2</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>3330.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4060.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>734.52894836</v>
+        <v>1751</v>
       </c>
       <c r="C12" t="n">
-        <v>2451.83</v>
+        <v>6517</v>
       </c>
       <c r="D12" t="n">
-        <v>976.49</v>
+        <v>1422.1</v>
       </c>
       <c r="E12" t="n">
-        <v>5124.63</v>
+        <v>11396.5</v>
       </c>
       <c r="F12" t="n">
-        <v>30871.7696292073</v>
+        <v>52353.4</v>
       </c>
       <c r="G12" t="n">
-        <v>28303.53</v>
+        <v>49120</v>
       </c>
       <c r="H12" t="n">
-        <v>483.24</v>
+        <v>1011.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1292</v>
+        <v>3169</v>
       </c>
       <c r="J12" t="n">
-        <v>738.8</v>
+        <v>3662.5</v>
       </c>
       <c r="K12" t="n">
-        <v>7221.72</v>
+        <v>13552.1</v>
       </c>
       <c r="L12" t="n">
-        <v>33319.28</v>
+        <v>53302.5</v>
       </c>
       <c r="M12" t="n">
-        <v>190.59</v>
+        <v>217.9</v>
       </c>
       <c r="N12" t="n">
-        <v>41936.46</v>
+        <v>77620.2</v>
       </c>
       <c r="O12" t="n">
-        <v>42071.6</v>
+        <v>77790.60000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>39366.25</v>
+        <v>74386.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>41934.49</v>
+        <v>77620.2</v>
       </c>
       <c r="R12" t="n">
-        <v>55.45</v>
+        <v>47.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2568.24</v>
+        <v>3233.5</v>
       </c>
       <c r="T12" t="n">
-        <v>446.22</v>
+        <v>4664.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>848.415894938898</v>
+        <v>1993</v>
       </c>
       <c r="C13" t="n">
-        <v>2753.05</v>
+        <v>7706.8</v>
       </c>
       <c r="D13" t="n">
-        <v>1012.9</v>
+        <v>1596.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5620.06</v>
+        <v>12278.9</v>
       </c>
       <c r="F13" t="n">
-        <v>34691.5535087205</v>
+        <v>56622.3</v>
       </c>
       <c r="G13" t="n">
-        <v>31990.85</v>
+        <v>53366.2</v>
       </c>
       <c r="H13" t="n">
-        <v>571.8200000000001</v>
+        <v>1132.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1503.08</v>
+        <v>3869.6</v>
       </c>
       <c r="J13" t="n">
-        <v>863.5</v>
+        <v>4075.2</v>
       </c>
       <c r="K13" t="n">
-        <v>6989.45</v>
+        <v>13390</v>
       </c>
       <c r="L13" t="n">
-        <v>38337.02</v>
+        <v>58058.7</v>
       </c>
       <c r="M13" t="n">
-        <v>193.07</v>
+        <v>201.8</v>
       </c>
       <c r="N13" t="n">
-        <v>47002.74</v>
+        <v>85200.10000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>47130.19</v>
+        <v>85342.5</v>
       </c>
       <c r="P13" t="n">
-        <v>44300.18</v>
+        <v>81944</v>
       </c>
       <c r="Q13" t="n">
-        <v>47000.88</v>
+        <v>85200.10000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>65.62</v>
+        <v>59.4</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.7</v>
+        <v>3256.1</v>
       </c>
       <c r="T13" t="n">
-        <v>703.3099999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>915.3691599019839</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3083.64</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1012.57</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6218.96</v>
-      </c>
-      <c r="F14" t="n">
-        <v>36232.2072451329</v>
-      </c>
-      <c r="G14" t="n">
-        <v>33336.05</v>
-      </c>
-      <c r="H14" t="n">
-        <v>608.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1691.49</v>
-      </c>
-      <c r="J14" t="n">
-        <v>973.9400000000001</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8721.07</v>
-      </c>
-      <c r="L14" t="n">
-        <v>38928.14</v>
-      </c>
-      <c r="M14" t="n">
-        <v>176.53</v>
-      </c>
-      <c r="N14" t="n">
-        <v>49767.74</v>
-      </c>
-      <c r="O14" t="n">
-        <v>49875.53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>46866.48</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>49762.64</v>
-      </c>
-      <c r="R14" t="n">
-        <v>68.73999999999999</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2896.16</v>
-      </c>
-      <c r="T14" t="n">
-        <v>959.78</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1000.9194839318</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3397.62</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1026.87</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6989.16</v>
-      </c>
-      <c r="F15" t="n">
-        <v>39236.8806232892</v>
-      </c>
-      <c r="G15" t="n">
-        <v>36096.17</v>
-      </c>
-      <c r="H15" t="n">
-        <v>675.0700000000001</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1876.89</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1116.13</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9202.91</v>
-      </c>
-      <c r="L15" t="n">
-        <v>42470.09</v>
-      </c>
-      <c r="M15" t="n">
-        <v>186.69</v>
-      </c>
-      <c r="N15" t="n">
-        <v>54204.06</v>
-      </c>
-      <c r="O15" t="n">
-        <v>54316.37</v>
-      </c>
-      <c r="P15" t="n">
-        <v>51062.7</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>54203.41</v>
-      </c>
-      <c r="R15" t="n">
-        <v>74.38</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3140.71</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1411.97</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1059.24004223215</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3614.98</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1013.39</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7176.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>42248.7100152048</v>
-      </c>
-      <c r="G16" t="n">
-        <v>39148.83</v>
-      </c>
-      <c r="H16" t="n">
-        <v>721.67</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1995.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1325.38</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10728.824384</v>
-      </c>
-      <c r="L16" t="n">
-        <v>44001.107947</v>
-      </c>
-      <c r="M16" t="n">
-        <v>181.58</v>
-      </c>
-      <c r="N16" t="n">
-        <v>57830.488881</v>
-      </c>
-      <c r="O16" t="n">
-        <v>57944.568881</v>
-      </c>
-      <c r="P16" t="n">
-        <v>54729.81</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>57829.69</v>
-      </c>
-      <c r="R16" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3099.88</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1599.785674</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1125.6104998365</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3918.63</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1039.83</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7565.21</v>
-      </c>
-      <c r="F17" t="n">
-        <v>41549.990498809</v>
-      </c>
-      <c r="G17" t="n">
-        <v>38562.13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>698.67</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2122.04</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1707.89</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11302.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>42841.88</v>
-      </c>
-      <c r="M17" t="n">
-        <v>186.54</v>
-      </c>
-      <c r="N17" t="n">
-        <v>58021.29</v>
-      </c>
-      <c r="O17" t="n">
-        <v>58145.73</v>
-      </c>
-      <c r="P17" t="n">
-        <v>55032.12</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>58019.98</v>
-      </c>
-      <c r="R17" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2987.86</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1857.66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1251.4896257982</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4394.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1091.91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8420.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>42996.889763115</v>
-      </c>
-      <c r="G18" t="n">
-        <v>39933.96</v>
-      </c>
-      <c r="H18" t="n">
-        <v>725.62</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2323.78</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2132.8735</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11840.475661</v>
-      </c>
-      <c r="L18" t="n">
-        <v>44370.6848</v>
-      </c>
-      <c r="M18" t="n">
-        <v>189.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>61204.380522</v>
-      </c>
-      <c r="O18" t="n">
-        <v>61331.600522</v>
-      </c>
-      <c r="P18" t="n">
-        <v>58142.16</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>61205.09</v>
-      </c>
-      <c r="R18" t="n">
-        <v>61.85</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3062.93</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2370.7037</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1417.9825692361</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4880.58874321</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1175.12042978</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9071.56783301</v>
-      </c>
-      <c r="F19" t="n">
-        <v>46052.8416304815</v>
-      </c>
-      <c r="G19" t="n">
-        <v>42857.01584138</v>
-      </c>
-      <c r="H19" t="n">
-        <v>789.22239393</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2526.6450876</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2480.702211</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11978.651527</v>
-      </c>
-      <c r="L19" t="n">
-        <v>47545.950323</v>
-      </c>
-      <c r="M19" t="n">
-        <v>194.6950654</v>
-      </c>
-      <c r="N19" t="n">
-        <v>65914.00158233001</v>
-      </c>
-      <c r="O19" t="n">
-        <v>66044.46743999999</v>
-      </c>
-      <c r="P19" t="n">
-        <v>62718.14326312</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>65913.96916414</v>
-      </c>
-      <c r="R19" t="n">
-        <v>64.22920773</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3195.82590102</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2972.296235</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1608.4972599</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5716.48780316</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1242.52701037</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10057.5520458445</v>
-      </c>
-      <c r="F20" t="n">
-        <v>49094.9115961343</v>
-      </c>
-      <c r="G20" t="n">
-        <v>45743.19733307</v>
-      </c>
-      <c r="H20" t="n">
-        <v>887.82349597</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2900.39659038</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2943.585425</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12317.870852</v>
-      </c>
-      <c r="L20" t="n">
-        <v>50963.182876</v>
-      </c>
-      <c r="M20" t="n">
-        <v>209.06324038</v>
-      </c>
-      <c r="N20" t="n">
-        <v>71509.15152573489</v>
-      </c>
-      <c r="O20" t="n">
-        <v>71661.3323921249</v>
-      </c>
-      <c r="P20" t="n">
-        <v>68156.4815377045</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>71508.1958301245</v>
-      </c>
-      <c r="R20" t="n">
-        <v>56.88237399</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3351.71429242</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3659.7123816063</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1752.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6263.8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1336.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10637.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>50698.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>47368.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>991.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3187.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3483.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13044.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>52201.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>74866.3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>75034.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>71536</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>74866.10000000001</v>
-      </c>
-      <c r="R21" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3330.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4060.3</v>
+        <v>6561</v>
       </c>
     </row>
   </sheetData>
